--- a/biology/Botanique/Microcoelia/Microcoelia.xlsx
+++ b/biology/Botanique/Microcoelia/Microcoelia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Microcoelia est un genre de la famille des Orchidaceae, de la sous-famille des Epidendroideae, comptant trente d'espèces d'orchidées épiphytes africaines[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Microcoelia est un genre de la famille des Orchidaceae, de la sous-famille des Epidendroideae, comptant trente d'espèces d'orchidées épiphytes africaines.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Dicranotaenia Finet 1907
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dicranotaenia Finet 1907
 Encheiridion Summerhayes 1943
 Gussonea A. Rich. 1828
-Gussonia Spreng. 1820 [1821]</t>
+Gussonia Spreng. 1820 </t>
         </is>
       </c>
     </row>
@@ -544,9 +558,11 @@
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (29 octobre 2018)[2] et The Plant List            (29 octobre 2018)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (29 octobre 2018) et The Plant List            (29 octobre 2018) :
 Microcoelia aurantiaca (Schltr.) Summerh.
 Microcoelia bispiculata L.Jonss.
 Microcoelia bulbocalcarata L.Jonss.
@@ -577,7 +593,7 @@
 Microcoelia sanfordii L.Jonss.
 Microcoelia smithii (Rolfe) Summerh.
 Microcoelia stolzii (Schltr.) Summerh.
-Selon Catalogue of Life                                   (29 octobre 2018)[5] :
+Selon Catalogue of Life                                   (29 octobre 2018) :
 Microcoelia aphylla (Thouars) Summerh.
 Microcoelia aurantiaca (Schltr.) Summerh.
 Microcoelia bispiculata L.Jonss.
@@ -609,7 +625,7 @@
 Microcoelia sanfordii L.Jonss.
 Microcoelia smithii (Rolfe) Summerh.
 Microcoelia stolzii (Schltr.) Summerh.
-Selon World Checklist of Selected Plant Families (WCSP)  (29 octobre 2018)[6] :
+Selon World Checklist of Selected Plant Families (WCSP)  (29 octobre 2018) :
 Microcoelia africana (R.Rice) R.Rice (2007)
 Microcoelia aphylla (Thouars) Summerh. (1936)
 Microcoelia aurantiaca (Schltr.) Summerh. (1943)
@@ -646,7 +662,7 @@
 Microcoelia sanfordii L.Jonss. (1981)
 Microcoelia smithii (Rolfe) Summerh. (1943)
 Microcoelia stolzii (Schltr.) Summerh. (1943)
-Selon Tropicos                                           (29 octobre 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (29 octobre 2018) (Attention liste brute contenant possiblement des synonymes) :
 Microcoelia aphylla (Thouars) Summerh.
 Microcoelia aurantiaca (Schltr.) Summerh.
 Microcoelia bieleri (De Wild.) Summerh.
@@ -718,7 +734,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Afrique tropicale et Madagascar
 </t>
